--- a/23. Matriz de Rastreabilidade (Características x SSS incompleto).xlsx
+++ b/23. Matriz de Rastreabilidade (Características x SSS incompleto).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Mylren\Documents\GitHub\Eng-Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDE5524-7C0A-4F98-B0FD-C242AEFAC244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C549237D-2406-405A-B0FA-BE29FCCF8134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9C7D557-1008-4D39-A284-FA53F0B96817}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Característica 10</t>
   </si>
@@ -157,13 +157,19 @@
   </si>
   <si>
     <t>SSS-13</t>
+  </si>
+  <si>
+    <t>Observação:</t>
+  </si>
+  <si>
+    <t>Impossibilidade de desenvolvimento da rastreabilidade entre os Requisitos e as Características.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +190,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -224,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -241,6 +260,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C79A01-D8C8-4CD2-9ACF-DDB32F278A2E}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,10 +1190,32 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
+    <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B34:M34"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
